--- a/docs/Comp_Module_Map_2022_V3.xlsx
+++ b/docs/Comp_Module_Map_2022_V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBBFC05-EA75-0546-A34D-FD926855971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C2AAA2-3781-4A46-9B8C-63E36CA7B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="460" windowWidth="32400" windowHeight="28340" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="8440" yWindow="460" windowWidth="32400" windowHeight="28340" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="UG Map" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -973,6 +973,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,7 +1291,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,7 +1583,7 @@
       <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="81" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="66"/>

--- a/docs/Comp_Module_Map_2022_V3.xlsx
+++ b/docs/Comp_Module_Map_2022_V3.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solent/Uni_OneDrive/OneDrive - Solent University/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C2AAA2-3781-4A46-9B8C-63E36CA7B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA2C91-0A35-B346-B11B-A6402E7C6B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="460" windowWidth="32400" windowHeight="28340" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="65820" yWindow="740" windowWidth="32400" windowHeight="28340" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="UG Map" sheetId="1" r:id="rId1"/>
     <sheet name="PG Map" sheetId="5" r:id="rId2"/>
-    <sheet name="PG MAIDS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="93">
   <si>
     <t>COM411 Problem Solving Through Programming</t>
   </si>
@@ -313,9 +312,6 @@
     <t>COM728 - Programming for Problem Solving</t>
   </si>
   <si>
-    <t>MSc Applied AI &amp; Data Science Sep &amp; Jan starts</t>
-  </si>
-  <si>
     <t>No Level 4 intake for DDWD  Sept 2022</t>
   </si>
   <si>
@@ -326,13 +322,28 @@
   </si>
   <si>
     <t>In 20022-23 only BDATS do this module in the Summer</t>
+  </si>
+  <si>
+    <t>MSc Applied AI &amp; Data Science</t>
+  </si>
+  <si>
+    <t>COM626 - Mobile Development &amp; 3D Graphics</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>OPTION - Choose 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,6 +395,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -423,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -661,19 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -726,19 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -775,11 +768,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -875,12 +905,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,39 +927,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,21 +934,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -974,6 +961,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE26D5-4215-1D47-A0E4-BF6B097FFA25}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,24 +1368,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1404,7 @@
       <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="73"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
@@ -1349,7 +1413,7 @@
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -1367,7 +1431,7 @@
       <c r="H3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -1376,7 +1440,7 @@
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1394,7 +1458,7 @@
       <c r="H4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="73"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
@@ -1403,7 +1467,7 @@
       <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -1413,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="25"/>
-      <c r="I5" s="73"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
@@ -1422,7 +1486,7 @@
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
@@ -1434,7 +1498,7 @@
       <c r="H6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="73"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
@@ -1443,7 +1507,7 @@
       <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
@@ -1455,7 +1519,7 @@
       <c r="H7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
@@ -1464,7 +1528,7 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1474,7 +1538,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="73"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
@@ -1483,7 +1547,7 @@
       <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1501,7 +1565,7 @@
       <c r="H9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -1510,7 +1574,7 @@
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1584,7 @@
       <c r="H10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
@@ -1529,7 +1593,7 @@
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1541,7 +1605,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="71"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
@@ -1550,7 +1614,7 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2"/>
@@ -1558,7 +1622,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="71"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
@@ -1567,7 +1631,7 @@
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
         <v>8</v>
@@ -1577,16 +1641,16 @@
       <c r="H13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>12</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -1596,16 +1660,16 @@
       <c r="H14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>13</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="65" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="28"/>
@@ -1615,8 +1679,8 @@
       <c r="H15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="72" t="s">
-        <v>88</v>
+      <c r="I15" s="57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1638,7 +1702,7 @@
       <c r="H16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
@@ -1659,7 +1723,7 @@
       <c r="H17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
@@ -1678,7 +1742,7 @@
       <c r="H18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
@@ -1703,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="25"/>
-      <c r="I19" s="71"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="33">
@@ -1722,7 +1786,7 @@
       <c r="H20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
@@ -1741,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="25"/>
-      <c r="I21" s="71"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
@@ -1760,7 +1824,7 @@
       <c r="H22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="71"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
@@ -1783,7 +1847,7 @@
       <c r="H23" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
@@ -1804,7 +1868,7 @@
       <c r="H24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="71"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
@@ -1825,7 +1889,7 @@
       <c r="H25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="71"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
@@ -1844,7 +1908,7 @@
       <c r="H26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
@@ -1863,7 +1927,7 @@
       <c r="H27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="71"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
@@ -1880,7 +1944,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="71"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
@@ -1897,7 +1961,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="71"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
@@ -1914,7 +1978,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="73"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
@@ -1933,7 +1997,7 @@
       <c r="H31" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="73"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="33">
@@ -1952,7 +2016,7 @@
       <c r="H32" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="73"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
@@ -1973,7 +2037,7 @@
       <c r="H33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="73"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
@@ -1990,7 +2054,7 @@
       <c r="H34" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="73"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
@@ -2007,7 +2071,7 @@
       <c r="H35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="73"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="33">
@@ -2024,7 +2088,7 @@
       <c r="H36" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="73"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
@@ -2033,8 +2097,8 @@
       <c r="B37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>8</v>
+      <c r="C37" s="93" t="s">
+        <v>90</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2045,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="38"/>
-      <c r="I37" s="73"/>
+      <c r="I37" s="58"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
@@ -2066,29 +2130,29 @@
       <c r="H38" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="73"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>37</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="62" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="75" t="s">
+      <c r="F39" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="60" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="72" t="s">
-        <v>87</v>
+      <c r="I39" s="88" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2110,7 +2174,7 @@
       <c r="H40" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="73"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
@@ -2135,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="25"/>
-      <c r="I41" s="73"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
@@ -2162,7 +2226,7 @@
       <c r="H42" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="73"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
@@ -2171,21 +2235,21 @@
       <c r="B43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="92" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="73"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
@@ -2195,8 +2259,8 @@
         <v>29</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>8</v>
+      <c r="D44" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>8</v>
@@ -2206,29 +2270,29 @@
       <c r="H44" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="73"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>43</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="72" t="s">
-        <v>86</v>
+      <c r="C45" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="88" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2238,31 +2302,35 @@
       <c r="B46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>90</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="73"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>45</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="75"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="72" t="s">
-        <v>86</v>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="88" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2275,8 +2343,8 @@
       <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>8</v>
+      <c r="D48" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -2284,7 +2352,7 @@
       <c r="H48" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="73"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
@@ -2295,73 +2363,108 @@
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="7" t="s">
-        <v>8</v>
+      <c r="E49" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="73"/>
-    </row>
-    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="I49" s="58"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="85">
         <v>48</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="73"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-    </row>
-    <row r="52" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
+        <v>49</v>
+      </c>
+      <c r="B51" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="58"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="58" t="s">
+    </row>
+    <row r="53" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="60"/>
-    </row>
-    <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="70" t="s">
-        <v>85</v>
-      </c>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="70"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="68"/>
-    </row>
-    <row r="56" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="69"/>
+      <c r="B55" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="72"/>
+      <c r="D56" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2372,7 +2475,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2386,433 +2489,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="17" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E3" s="81" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="46">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="50">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="46">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="50">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="46">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="50">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="46">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="49"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="50">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="47">
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="46">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="49"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="53">
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="52">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="49"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="51">
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="50">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="49"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="53">
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="52">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="49"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A20" s="48"/>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50">
+        <v>1</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="46">
+        <v>2</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50">
+        <v>3</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+      <c r="A25" s="46">
+        <v>4</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50">
+        <v>5</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+      <c r="A27" s="48"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+      <c r="A28" s="48"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="47"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA73B5C-D9F3-8C4C-8480-D7DAE5FA9C24}">
-  <dimension ref="A1:B52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="77.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="64"/>
-    </row>
-    <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
-        <v>1</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
